--- a/outputs/MYRTLE2.xlsx
+++ b/outputs/MYRTLE2.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi's primary motivation for deciding whether to attend the conference is to find out what is being presented. This aligns with Abi’s goal of gathering comprehensive information about the conference content. The page provides information about the schedule, keynotes, and events, which helps Abi in making an informed decision.</t>
+Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial for making that decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, her comprehensive information processing style would lead her to gather detailed information about the conference presentations to make an informed decision.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling down aligns with Abi's information processing style as it allows her to gather more information comprehensively. The page is straightforward and clearly organized, making it easy for Abi to understand that she needs to scroll down to find more details about the conference, such as the schedule and keynotes.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Scrolling down is a straightforward action that aligns with Abi's information processing style, as it allows her to gather more information comprehensively. The page layout is clear, and the content is organized in a way that makes it easy for Abi to understand that she needs to scroll down to find more details about the conference presentations. This action does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down, Abi will find some information about keynotes and a brief schedule overview. However, the detailed information about what is being presented is not comprehensive on this page. Keynotes alone may not provide enough insight into all the sessions and presentations. Given Abi's preference for a comprehensive understanding and her lower computer self-efficacy, she may feel uncertain if she has gathered all necessary information about the conference presentations. This lack of detailed information could hinder her confidence in making an informed decision.</t>
+Why: While scrolling down provides some information about the conference, such as keynotes and a schedule overview, it does not give comprehensive details about all the presentations. Abi's comprehensive information processing style means she needs detailed information to make an informed decision. Additionally, the page does not clearly indicate where to find the full list of presentations, which might make Abi uncertain if she has all the necessary information. This could affect her confidence in making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The POPL 2019 homepage is well-organized and provides clear sections, such as "POPL 2019," "Schedule Overview," and "Keynotes." This layout makes it intuitive for Abi to understand that scrolling down will reveal more information about the conference. Given her information processing style, she will likely recognize that scrolling is a necessary step to gather the detailed information she needs.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page layout is clear and provides a logical flow of information. The presence of keynotes and a schedule overview at the top of the page suggests that more detailed information can be found by scrolling down. This aligns with Abi's information processing style, as she would naturally scroll to gather more information. Additionally, scrolling is a simple action that does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down, Abi will find some information about keynotes and a brief schedule overview. However, this page does not provide comprehensive details about all the presentations at the conference. Given Abi's comprehensive information processing style, she may feel uncertain if she has gathered all the necessary information about the conference presentations. The lack of detailed session information could hinder her confidence in making an informed decision, affecting her progress toward the goal.</t>
+Why: After scrolling down, Abi will see some information about keynotes and a schedule overview, but this does not provide comprehensive details about all the presentations at the conference. Abi's comprehensive information processing style means she needs detailed and complete information to feel confident that she is making progress toward her goal. The page does not clearly indicate where to find the full list of presentations, which might make Abi uncertain if she has all the necessary information. This could affect her confidence in making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations, 3. Attitude Toward Risk
-Why: The "Program of POPL 2019" link is clearly labeled and prominently located at the top of the page. This makes it easy for Abi to understand that clicking this link will provide her with more detailed information about the conference program. Knowing what is being presented at the conference is directly aligned with her motivation. Additionally, the clear labeling reduces ambiguity, minimizing the perceived risk associated with clicking the link.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The link "Program of POPL 2019" is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify and understand that clicking it will provide more detailed information about the conference program. This aligns with her comprehensive information processing style, as she would naturally look for such links to gather more information. Additionally, the action of clicking a clearly labeled link does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page Abi lands on provides a detailed list of presentations, the sheer volume of information presented in a long, continuous list can be overwhelming. Abi's comprehensive information processing style means she prefers organized and easily navigable information. The lack of clear categorization or a summary at the top could make it difficult for her to quickly find relevant sessions, affecting her confidence. Additionally, the overwhelming amount of information may lead to uncertainty about whether she has gathered all necessary details, hindering her progress toward the goal.</t>
+Why: While Abi will land on a page with a detailed list of presentations, the sheer volume of information presented in a long, continuous format can be overwhelming. Abi's comprehensive information processing style means she needs to process all this information to feel confident she has made progress toward her goal. However, the lack of clear organization or categorization might make it difficult for her to find specific information quickly. Additionally, her low computer self-efficacy might make her feel uncertain about navigating such a dense page, potentially hindering her confidence in making progress.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page clearly lists the schedule of presentations, and scrolling down is a straightforward action to view the comprehensive list. Abi's information processing style involves gathering comprehensive details, so she will understand that scrolling down is necessary to view all the information. The page's format supports this action by displaying the schedule in a continuous list, making it clear that more information is available as she scrolls.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Scrolling down is a straightforward action that aligns with Abi's information processing style, as it allows her to gather more information comprehensively. The page layout is clear, and the content is organized in a way that makes it easy for Abi to understand that she needs to scroll down to find more details about the conference presentations. This action does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down will provide Abi with a list of presentations, the extensive and overwhelming amount of information without clear categorization or summaries could make it difficult for her to process and find specific details. Abi prefers a comprehensive and organized presentation of information. The long, continuous list may cause confusion and uncertainty about whether she has obtained all necessary information, impacting her confidence and progress toward her goal. The presentation of the information does not align well with her need for clear, structured data, leading to a lack of assurance that she is making the right progress.</t>
+Why: After scrolling down, Abi will encounter a very long and dense list of presentations. While this page contains a lot of information, it is not organized in a way that is easy to digest quickly. Abi's comprehensive information processing style means she needs to process all this information to feel confident she has made progress toward her goal. The overwhelming amount of information and lack of clear organization might make it difficult for her to find specific details efficiently. Additionally, her low computer self-efficacy might make her feel uncertain about navigating such a dense page, potentially hindering her confidence in making progress.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page contains a long list of presentations without any clear indication or specific label for "distinguished paper," making it difficult for Abi to know exactly where to click. Given Abi's preference for structured information and process-oriented learning, the absence of a clear, standout link or section for distinguished papers may cause confusion and hesitation. Additionally, Abi's lower computer self-efficacy means she is less likely to tinker with links unless it is clearly specified, which is not the case here. This could prevent her from confidently taking the necessary action to find the distinguished paper.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page is very dense and contains a lot of information, which can be overwhelming for Abi. It is not immediately clear which papers are distinguished, and there is no specific indication or highlight for distinguished papers. Abi's comprehensive information processing style means she needs clear and organized information to feel confident in her actions. Additionally, her low computer self-efficacy might make her hesitant to click on links without clear indications of their purpose, making it difficult for her to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -515,26 +515,26 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking on the distinguished paper, Abi will see a detailed pop-up that provides comprehensive information about the paper, including the title, authors, and an abstract. This aligns well with Abi's information processing style, as the pop-up consolidates all the necessary details in an organized manner. Abi will know she is making progress toward her goal of finding out what is being presented at the conference, as the pop-up provides the specific information she needs about the distinguished paper. This clear and structured presentation will help her feel confident that she is on the right track.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with comprehensive information about the paper, including the title, authors, and a summary. This aligns with her comprehensive information processing style, as it provides all the necessary details in a clear and organized manner. Additionally, the pop-up format is straightforward and easy to navigate, which will help Abi feel confident that she is making progress toward her goal and has obtained the information she needs.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The pop-up window has a clear "Close" button, which is an intuitive action for Abi to return to the main page. This aligns with her need for straightforward and easily navigable information. Once she closes the pop-up, she can continue exploring the program to check tutorials. Given her motivation to gather comprehensive information, the path to return to the main page is clear and straightforward, allowing her to continue her research without confusion.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The current page does not provide a clear and intuitive way to navigate back to the main page. There is no visible "back" button or link that indicates how to return to the main page to check the tutorial. Abi's comprehensive information processing style means she needs clear navigation cues to feel confident in her actions. Additionally, her low computer self-efficacy might make her hesitant to explore or click on elements without clear indications of their purpose, making it difficult for her to know what to do at this step.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Upon returning to the main page, Abi will find the same homepage she initially encountered. The page provides some information but lacks clear, specific guidance on how to explore all programs, including tutorials. Given Abi's preference for comprehensive information and her lower computer self-efficacy, she may feel uncertain about what to do next to find detailed information on tutorials. The page does not provide a clear, organized path toward finding all the sessions she is interested in, which may hinder her progress toward her goal.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: If Abi successfully navigates back to the main page, she will recognize that she is making progress toward her goal. The main page is well-organized and provides clear links to various sections, including tutorials. This aligns with her comprehensive information processing style, as she can easily find and access the information she needs. Additionally, the clear layout and labeled links will help her feel confident in her actions, despite her low computer self-efficacy.</t>
         </is>
       </c>
     </row>
@@ -542,8 +542,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations, 3. Attitude Toward Risk
-Why: The homepage clearly lists "TutorialFest" links under the schedule overview, making it intuitive for Abi to understand where to click to find more information about the tutorials. The clear labeling and prominent placement reduce ambiguity and the perceived risk associated with clicking the link. This aligns well with her motivation to gather comprehensive information about the conference presentations and tutorials. The page layout supports her need for straightforward navigation, allowing her to confidently take the action of clicking on the TutorialFest link.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page is well-organized and clearly labels the "TutorialFest" section, making it easy for Abi to identify and understand that clicking on one of the links will provide more detailed information about the tutorials. This aligns with her comprehensive information processing style, as she would naturally look for such links to gather more information. Additionally, the action of clicking a clearly labeled link does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
         </is>
       </c>
     </row>
@@ -551,8 +551,8 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: After clicking on the TutorialFest link, Abi lands on a page that provides minimal information about the tutorials. The page mainly lists important dates and the evaluation committee but lacks detailed information about the actual tutorials. This sparse presentation is unlikely to satisfy Abi's need for comprehensive information processing and may leave her uncertain about her progress toward her goal. The lack of detailed content and structure could also affect her confidence in navigating the site effectively. Consequently, she may not feel assured that she is making meaningful progress toward her goal of understanding what is being presented at the conference.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on the TutorialFest link, Abi lands on a page that does not immediately provide detailed information about the tutorials. The page has links to "About," "Program," "List of Tutorials," and "Call for Tutorials," but Abi will need to click on these links to find the specific information she needs. This additional navigation might be confusing and time-consuming for Abi, who prefers comprehensive information to be readily available. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance, making it difficult for her to feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/MYRTLE2.xlsx
+++ b/outputs/MYRTLE2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial for making an informed decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, her comprehensive information processing style means she would consider gathering detailed information about the conference presentations as a necessary step toward making her decision.</t>
+Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial information for making that decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, the page provides a comprehensive overview of the schedule and keynotes, which fits her information processing style of gathering detailed information before making decisions.</t>
         </is>
       </c>
     </row>
@@ -435,70 +435,70 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page layout is clear, and the information about POPL 2019 is prominently displayed, making it easy for Abi to understand that she needs to scroll down to find more details. This action does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
+Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page is well-organized and provides clear sections, making it easy for Abi to understand that she needs to scroll down to find more information about what is being presented at the conference. This action does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After scrolling down, Abi will see detailed information about the conference, including the schedule overview, keynotes, and other events. This comprehensive information aligns with her information processing style, allowing her to gather all the necessary details to make an informed decision about attending the conference. Additionally, seeing this information will confirm that she is making progress toward her goal of finding out what is being presented, which aligns with her motivations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page is well-structured and provides clear headings and sections, making it intuitive for Abi to understand that she needs to scroll down to find more information. This aligns with her comprehensive information processing style, as she can see that there is more content below the fold. Additionally, scrolling is a simple action that does not require high technical skills, so her low computer self-efficacy will not be a barrier. The presence of visible content below the initial view suggests that scrolling will reveal more relevant information, guiding her to take this action.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: While scrolling down will reveal some information about the conference, such as keynotes and a schedule overview, it may not provide all the detailed information Abi needs to make an informed decision. Abi's comprehensive information processing style means she needs detailed and complete information, and the page may not provide enough specifics about all the presentations and sessions. Additionally, Abi's process-oriented learning style means she prefers step-by-step guidance, which is not provided here. Therefore, she may not feel confident that she has all the necessary information to decide about attending the conference.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The link labeled "Program of POPL 2019" is clearly visible and suggests that it will provide detailed information about the conference program. This aligns with Abi's motivation to find out what is being presented at the conference. Additionally, the link is straightforward and clearly labeled, which fits her comprehensive information processing style. She will understand that clicking this link is the next logical step to gather more detailed information about the conference presentations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down will reveal some information about the conference, the page does not provide a comprehensive list of all presentations. Abi's comprehensive information processing style means she needs detailed and complete information to feel confident in her decision. The page primarily shows keynote speakers and a schedule overview, but it lacks detailed information about all the presentations. This might leave Abi uncertain if she has all the necessary information to make an informed decision, affecting her confidence in making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+Why: While the page provides a detailed list of presentations, the sheer volume of information presented in a dense format may overwhelm Abi. Her comprehensive information processing style means she needs to gather and understand detailed information, but the lack of clear organization or summaries may make it difficult for her to process this information effectively. Additionally, her low computer self-efficacy may make her feel uncertain about navigating such a long and complex list, leading to frustration and a sense that she is not making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page layout is clear and straightforward, with the main content about POPL 2019 prominently displayed. Abi can easily see that there is more information below the fold, which would prompt her to scroll down. This action aligns with her comprehensive information processing style, as she would naturally want to gather more information. Additionally, scrolling down is a simple action that does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+Why: Scrolling down is a straightforward action that Abi will understand how to perform. The page is long and contains a lot of information, but scrolling is a simple and familiar action that does not require high technical skills. This aligns with her low computer self-efficacy. Additionally, her comprehensive information processing style means she is likely to scroll through the page to gather all the details she needs. However, while she will know what to do, the effectiveness of this action in helping her achieve her subgoal will depend on how well she can process the dense information presented.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down, Abi will see some information about the conference, such as keynote speakers and a schedule overview. However, this information is not comprehensive enough for her to fully understand what is being presented at the conference. Abi's comprehensive information processing style means she needs detailed and complete information to feel confident in her decision. The page does not provide a full list of presentations or detailed descriptions, which might leave her uncertain if she has all the necessary information to make an informed decision. This could affect her confidence in making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The link "Program of POPL 2019" is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify it as a relevant link to click for more information about the conference program. This aligns with her comprehensive information processing style, as she would naturally look for detailed information. Additionally, clicking a clearly labeled link is a straightforward action that does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking the "Program of POPL 2019" link, Abi will land on a page that provides a detailed and comprehensive list of the conference presentations. This aligns with her comprehensive information processing style, as she will have access to all the necessary information to make an informed decision about attending the conference. The detailed schedule and list of presentations will help her feel confident that she is making progress toward her goal of understanding what is being presented at the conference. This also aligns with her motivation to accomplish her tasks effectively.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page layout is clear and straightforward, with a detailed list of presentations displayed. Abi can easily see that there is more information below the fold, which would prompt her to scroll down. This action aligns with her comprehensive information processing style, as she would naturally want to gather more information. Additionally, scrolling down is a simple action that does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After scrolling down, Abi will see a detailed and comprehensive list of presentations at the conference. This aligns with her comprehensive information processing style, as she will have access to all the necessary information to make an informed decision about attending the conference. The detailed schedule and list of presentations will help her feel confident that she is making progress toward her goal of understanding what is being presented at the conference. This also aligns with her motivation to accomplish her tasks effectively.</t>
+Why: While scrolling down will reveal a comprehensive list of presentations, the dense and extensive format of the information may overwhelm Abi. Her comprehensive information processing style means she needs to gather and understand detailed information, but the lack of clear organization or summaries may make it difficult for her to process this information effectively. Additionally, her low computer self-efficacy may make her feel uncertain about navigating such a long and complex list, leading to frustration and a sense that she is not making progress toward her goal. Therefore, she may not feel confident that she has all the necessary information to decide about attending the conference.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is densely packed with information, and it is not immediately clear which papers are distinguished or how to identify them. Abi might struggle to find the specific papers she is looking for due to the overwhelming amount of text and lack of clear visual cues. Her low computer self-efficacy means she might feel uncertain about navigating this page effectively. Additionally, her preference for process-oriented learning means she would benefit from clearer instructions or visual indicators to guide her actions, which are not present on this page.</t>
+Why: The page presents a long and dense list of papers without clear instructions or indications of what clicking on a "distinguished paper" link will do. Abi's low computer self-efficacy means she may feel uncertain about clicking on links without clear guidance or understanding of the outcome. Additionally, her process-oriented learning style means she prefers step-by-step instructions, which are not provided here. Without clear information on what clicking the link will achieve, Abi may hesitate to take this action.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with comprehensive information about the paper, including the title, abstract, authors, and their affiliations. This detailed view aligns with her comprehensive information processing style, as it provides all the necessary information she needs to understand what is being presented. Additionally, this detailed information will help her feel confident that she is making progress toward her goal of understanding the conference content, aligning with her motivation to accomplish her tasks effectively.</t>
+Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with comprehensive information about the paper, including the title, abstract, authors, and presentation details. This aligns with her comprehensive information processing style, as it provides all the necessary details in a clear and organized manner. Additionally, seeing this detailed information will confirm that she is making progress toward her goal of finding out what is being presented at the conference, which aligns with her motivations. The clear presentation of information will help her feel confident that she has done the right thing and is on the right track.</t>
         </is>
       </c>
     </row>
@@ -525,34 +525,34 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The current page does not provide a clear and straightforward way to navigate back to the main page. Abi might not know how to return to the main page to check the tutorial information, especially given her low computer self-efficacy. The page lacks clear navigation instructions or a visible "back to main page" button, which would be helpful for someone with a process-oriented learning style. This could make Abi feel uncertain about how to proceed, hindering her progress toward her goal.</t>
+Why: The current page does not provide clear instructions or a visible navigation option to return to the main page. Abi's low computer self-efficacy means she may feel uncertain about how to navigate back without explicit guidance. Additionally, her process-oriented learning style means she prefers step-by-step instructions, which are not provided here. Without clear navigation cues or instructions, Abi may struggle to figure out how to return to the main page to check the tutorial, leading to confusion and hesitation.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: If Abi navigates back to the main page, she will see a clear and organized layout with sections for different types of information, including tutorials. This aligns with her comprehensive information processing style, as the main page provides a structured overview of the conference. Additionally, seeing the main page again will confirm that she is making progress toward her goal of finding out what is being presented at the conference, which aligns with her motivations. The main page is designed to help users easily find specific information, so Abi will feel confident that she is on the right track.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The main page clearly lists "TutorialFest" as part of the schedule overview, making it easy for Abi to identify and click on the relevant link. This aligns with her comprehensive information processing style, as the page is organized and provides clear sections for different types of information. Additionally, clicking on the "TutorialFest" link will help her gather more detailed information about the tutorials being presented, which aligns with her motivation to find out what is being presented at the conference. The page is well-structured and intuitive, making it straightforward for Abi to take this action.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After navigating back to the main page, Abi will see the general information about the conference again. However, the page does not provide a clear and direct path to the specific tutorial information she is looking for. Abi's comprehensive information processing style means she needs detailed and specific information to feel confident in her progress. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance. The main page does not prominently feature tutorials or provide an obvious link to them, which could leave Abi uncertain about whether she is making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "TutorialFest" link is clearly labeled and prominently displayed on the main page, making it easy for Abi to identify it as a relevant link to click for more information about the tutorials. This aligns with her comprehensive information processing style, as she would naturally look for detailed information. Additionally, clicking a clearly labeled link is a straightforward action that does not require high technical skills, so her low computer self-efficacy will not be a barrier. The page is good enough for Abi to take this action confidently.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the TutorialFest link, Abi lands on a page that does not immediately provide detailed information about the tutorials. The page has links to "About," "Program," "List of Tutorials," and "Call for Tutorials," but it is not immediately clear which link will provide the specific information she needs. Abi's comprehensive information processing style means she needs detailed and specific information to feel confident in her progress. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance. The page does not provide immediate, detailed information about the tutorials, which could leave Abi uncertain about whether she is making progress toward her goal.</t>
+Why: After clicking on the TutorialFest link, Abi lands on a page that provides minimal information about the tutorials. The page primarily shows important dates and the evaluation committee, but it lacks detailed information about the specific tutorials being presented. Abi's comprehensive information processing style means she needs detailed and complete information to make an informed decision, and this page does not provide that. Additionally, her low computer self-efficacy may make her feel uncertain about where to find the detailed information she needs, leading to frustration and a sense that she is not making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/MYRTLE2.xlsx
+++ b/outputs/MYRTLE2.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial information for making that decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, the page provides a comprehensive overview of the schedule and keynotes, which fits her information processing style of gathering detailed information before making decisions.</t>
+Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending is worthwhile. The page provides a schedule overview and links to papers and events, aligning with her comprehensive information processing style. This information helps her assess the value of attending.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page is well-organized and provides clear sections, making it easy for Abi to understand that she needs to scroll down to find more information about what is being presented at the conference. This action does not require high technical skills, so her low computer self-efficacy will not be a barrier.</t>
+Facets: 2. Information Processing Style
+Why: The page clearly presents a schedule overview and links to papers and events, which aligns with Abi's comprehensive information processing style. Scrolling down to find more detailed information is a logical step for her to take.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After scrolling down, Abi will see detailed information about the conference, including the schedule overview, keynotes, and other events. This comprehensive information aligns with her information processing style, allowing her to gather all the necessary details to make an informed decision about attending the conference. Additionally, seeing this information will confirm that she is making progress toward her goal of finding out what is being presented, which aligns with her motivations.</t>
+Facets: 2. Information Processing Style
+Why: By scrolling down, Abi can see the schedule overview, keynotes, and tutorials, which provide detailed information about what is being presented at the conference. This aligns with her comprehensive information processing style, confirming she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -452,17 +452,17 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is well-structured and provides clear headings and sections, making it intuitive for Abi to understand that she needs to scroll down to find more information. This aligns with her comprehensive information processing style, as she can see that there is more content below the fold. Additionally, scrolling is a simple action that does not require high technical skills, so her low computer self-efficacy will not be a barrier. The presence of visible content below the initial view suggests that scrolling will reveal more relevant information, guiding her to take this action.</t>
+Facets: 2. Information Processing Style
+Why: The page layout suggests that more information is available below, which aligns with Abi's comprehensive information processing style. Scrolling down is a natural action to find additional details about the conference.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: While scrolling down will reveal some information about the conference, such as keynotes and a schedule overview, it may not provide all the detailed information Abi needs to make an informed decision. Abi's comprehensive information processing style means she needs detailed and complete information, and the page may not provide enough specifics about all the presentations and sessions. Additionally, Abi's process-oriented learning style means she prefers step-by-step guidance, which is not provided here. Therefore, she may not feel confident that she has all the necessary information to decide about attending the conference.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: By scrolling down, Abi can view the schedule overview, keynotes, and tutorials, which provide detailed information about the conference presentations. This confirms she is making progress toward her goal and aligns with her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The link labeled "Program of POPL 2019" is clearly visible and suggests that it will provide detailed information about the conference program. This aligns with Abi's motivation to find out what is being presented at the conference. Additionally, the link is straightforward and clearly labeled, which fits her comprehensive information processing style. She will understand that clicking this link is the next logical step to gather more detailed information about the conference presentations.</t>
+Facets: 2. Information Processing Style
+Why: The link labeled "Program of POPL 2019" is clearly visible and suggests it will provide detailed information about the conference program. This aligns with Abi's comprehensive information processing style, making it a logical step for her to take.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides a detailed list of presentations, the sheer volume of information presented in a dense format may overwhelm Abi. Her comprehensive information processing style means she needs to gather and understand detailed information, but the lack of clear organization or summaries may make it difficult for her to process this information effectively. Additionally, her low computer self-efficacy may make her feel uncertain about navigating such a long and complex list, leading to frustration and a sense that she is not making progress toward her goal.</t>
+Why: The page contains a large amount of detailed information, which might be overwhelming for Abi. Her comprehensive information processing style may struggle with the volume of data, and her low computer self-efficacy might make it difficult for her to efficiently navigate and extract the needed information.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Scrolling down is a straightforward action that Abi will understand how to perform. The page is long and contains a lot of information, but scrolling is a simple and familiar action that does not require high technical skills. This aligns with her low computer self-efficacy. Additionally, her comprehensive information processing style means she is likely to scroll through the page to gather all the details she needs. However, while she will know what to do, the effectiveness of this action in helping her achieve her subgoal will depend on how well she can process the dense information presented.</t>
+Facets: 2. Information Processing Style
+Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. She is likely to understand that more information is available as she scrolls, which is a logical step to gather details about the conference program.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down will reveal a comprehensive list of presentations, the dense and extensive format of the information may overwhelm Abi. Her comprehensive information processing style means she needs to gather and understand detailed information, but the lack of clear organization or summaries may make it difficult for her to process this information effectively. Additionally, her low computer self-efficacy may make her feel uncertain about navigating such a long and complex list, leading to frustration and a sense that she is not making progress toward her goal. Therefore, she may not feel confident that she has all the necessary information to decide about attending the conference.</t>
+Why: Although scrolling down provides more information, the sheer volume and density of the data may overwhelm Abi. Her comprehensive information processing style might not be sufficient to easily navigate and extract the necessary details, and her low computer self-efficacy could hinder her confidence in making progress.</t>
         </is>
       </c>
     </row>
@@ -507,16 +507,16 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page presents a long and dense list of papers without clear instructions or indications of what clicking on a "distinguished paper" link will do. Abi's low computer self-efficacy means she may feel uncertain about clicking on links without clear guidance or understanding of the outcome. Additionally, her process-oriented learning style means she prefers step-by-step instructions, which are not provided here. Without clear information on what clicking the link will achieve, Abi may hesitate to take this action.</t>
+Why: The page is dense with information, and without clear guidance or labels indicating which papers are distinguished, Abi may struggle to identify the correct link. Her low computer self-efficacy and preference for process-oriented learning mean she might not feel confident in taking this action without explicit instructions.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with comprehensive information about the paper, including the title, abstract, authors, and presentation details. This aligns with her comprehensive information processing style, as it provides all the necessary details in a clear and organized manner. Additionally, seeing this detailed information will confirm that she is making progress toward her goal of finding out what is being presented at the conference, which aligns with her motivations. The clear presentation of information will help her feel confident that she has done the right thing and is on the right track.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Although the page shows distinguished papers, the error message and technical details might confuse Abi. Her comprehensive information processing style and low computer self-efficacy could make it difficult for her to feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The current page does not provide clear instructions or a visible navigation option to return to the main page. Abi's low computer self-efficacy means she may feel uncertain about how to navigate back without explicit guidance. Additionally, her process-oriented learning style means she prefers step-by-step instructions, which are not provided here. Without clear navigation cues or instructions, Abi may struggle to figure out how to return to the main page to check the tutorial, leading to confusion and hesitation.</t>
+Why: The page does not provide clear navigation back to the main page, which may confuse Abi. Her low computer self-efficacy and preference for structured guidance mean she might not feel confident in taking this action without explicit instructions or a clear path.</t>
         </is>
       </c>
     </row>
@@ -533,8 +533,8 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: If Abi navigates back to the main page, she will see a clear and organized layout with sections for different types of information, including tutorials. This aligns with her comprehensive information processing style, as the main page provides a structured overview of the conference. Additionally, seeing the main page again will confirm that she is making progress toward her goal of finding out what is being presented at the conference, which aligns with her motivations. The main page is designed to help users easily find specific information, so Abi will feel confident that she is on the right track.</t>
+Facets: 2. Information Processing Style
+Why: Returning to the main page allows Abi to see the schedule overview and tutorial information, which helps her make progress toward her goal. The page layout is clear, and she can easily identify the tutorials section, aligning with her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -542,8 +542,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The main page clearly lists "TutorialFest" as part of the schedule overview, making it easy for Abi to identify and click on the relevant link. This aligns with her comprehensive information processing style, as the page is organized and provides clear sections for different types of information. Additionally, clicking on the "TutorialFest" link will help her gather more detailed information about the tutorials being presented, which aligns with her motivation to find out what is being presented at the conference. The page is well-structured and intuitive, making it straightforward for Abi to take this action.</t>
+Facets: 2. Information Processing Style
+Why: The tutorial links are clearly labeled and visually distinct, making it easy for Abi to identify and click on them. This aligns with her comprehensive information processing style, allowing her to confidently take this action to explore more about the tutorials.</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the TutorialFest link, Abi lands on a page that provides minimal information about the tutorials. The page primarily shows important dates and the evaluation committee, but it lacks detailed information about the specific tutorials being presented. Abi's comprehensive information processing style means she needs detailed and complete information to make an informed decision, and this page does not provide that. Additionally, her low computer self-efficacy may make her feel uncertain about where to find the detailed information she needs, leading to frustration and a sense that she is not making progress toward her goal.</t>
+Why: The page provides limited information about the tutorials, mainly focusing on the date and committee. Abi may not feel she has made significant progress toward her goal of understanding the content of the tutorials, given her need for comprehensive information and low confidence in navigating sparse details.</t>
         </is>
       </c>
     </row>

--- a/outputs/MYRTLE2.xlsx
+++ b/outputs/MYRTLE2.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending is worthwhile. The page provides a schedule overview and links to papers and events, aligning with her comprehensive information processing style. This information helps her assess the value of attending.</t>
+Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and links to papers and events, aligning with her comprehensive information processing style. This information would help her make an informed decision about attending.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page clearly presents a schedule overview and links to papers and events, which aligns with Abi's comprehensive information processing style. Scrolling down to find more detailed information is a logical step for her to take.</t>
+Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page layout suggests there is more information below, which is a common web design cue that Abi is likely familiar with. This action is intuitive and doesn't require technical expertise.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: By scrolling down, Abi can see the schedule overview, keynotes, and tutorials, which provide detailed information about what is being presented at the conference. This aligns with her comprehensive information processing style, confirming she is making progress toward her goal.</t>
+Why: After scrolling, Abi will see the schedule overview and keynotes, which are relevant to her goal of finding out what is being presented. This confirms she is making progress toward her goal. The information is clearly laid out, helping her feel confident she is on the right track.</t>
         </is>
       </c>
     </row>
@@ -453,16 +453,16 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page layout suggests that more information is available below, which aligns with Abi's comprehensive information processing style. Scrolling down is a natural action to find additional details about the conference.</t>
+Why: The page layout suggests there is more information below, which is a common web design cue. Abi's comprehensive information processing style means she is likely to scroll to gather more details. The page is structured in a way that encourages scrolling to find additional content.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: By scrolling down, Abi can view the schedule overview, keynotes, and tutorials, which provide detailed information about the conference presentations. This confirms she is making progress toward her goal and aligns with her comprehensive information processing style.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling reveals some information, it may not provide all the details Abi needs to fully understand what is being presented at the conference. The page has a schedule overview and keynotes, but without more detailed descriptions or links to specific sessions, Abi might not feel she has all the necessary information. Her low computer self-efficacy might make her uncertain if she has found everything she needs.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The link labeled "Program of POPL 2019" is clearly visible and suggests it will provide detailed information about the conference program. This aligns with Abi's comprehensive information processing style, making it a logical step for her to take.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The link labeled "Program of POPL 2019" is clearly visible and directly related to Abi's goal of finding out what is being presented. This aligns with her motivation to gather information and her comprehensive information processing style, making it likely she will know to click this link to proceed.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a large amount of detailed information, which might be overwhelming for Abi. Her comprehensive information processing style may struggle with the volume of data, and her low computer self-efficacy might make it difficult for her to efficiently navigate and extract the needed information.</t>
+Why: Although Abi lands on a page with detailed information about the program, the sheer volume of text and lack of clear organization might overwhelm her. Her comprehensive information processing style could make it difficult to quickly find relevant details, and her low computer self-efficacy might lead to uncertainty about whether she has all the necessary information.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. She is likely to understand that more information is available as she scrolls, which is a logical step to gather details about the conference program.</t>
+Why: Scrolling is a natural action for Abi to take when faced with a long page of information. Her comprehensive information processing style means she is likely to scroll to gather more details. The page layout suggests there is more content below, which is a common web design cue.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although scrolling down provides more information, the sheer volume and density of the data may overwhelm Abi. Her comprehensive information processing style might not be sufficient to easily navigate and extract the necessary details, and her low computer self-efficacy could hinder her confidence in making progress.</t>
+Why: Although scrolling reveals more information, the page is densely packed with text and lacks clear organization, which might overwhelm Abi. Her comprehensive information processing style could make it difficult to quickly find relevant details, and her low computer self-efficacy might lead to uncertainty about whether she has all the necessary information.</t>
         </is>
       </c>
     </row>
@@ -507,52 +507,52 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is dense with information, and without clear guidance or labels indicating which papers are distinguished, Abi may struggle to identify the correct link. Her low computer self-efficacy and preference for process-oriented learning mean she might not feel confident in taking this action without explicit instructions.</t>
+Why: The page is densely packed with text, and it may not be immediately clear which link corresponds to the "distinguished paper." Abi's low computer self-efficacy might make her hesitant to click without clear guidance, and her preference for process-oriented learning means she might struggle without explicit instructions.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the distinguished paper, Abi lands on a page that clearly lists the distinguished papers, which directly aligns with her goal. The information is organized in a way that makes it easy for her to see the relevant details, confirming she is making progress toward her goal. This aligns with her motivation to gather specific information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide a clear way to navigate back to the main page, which might confuse Abi. Her low computer self-efficacy and preference for process-oriented learning mean she might struggle without explicit navigation instructions or visible links to return to the main page.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Returning to the main page allows Abi to access the tutorial information, which is part of her goal to explore the program. The page clearly displays tutorial options, confirming she is making progress. This aligns with her motivation to gather comprehensive information about the conference.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The tutorial links are clearly labeled and visually distinct, making it easy for Abi to identify and click on them. This aligns with her motivation to explore the program and her comprehensive information processing style, as she seeks detailed information about the conference offerings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although the page shows distinguished papers, the error message and technical details might confuse Abi. Her comprehensive information processing style and low computer self-efficacy could make it difficult for her to feel confident that she is making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide clear navigation back to the main page, which may confuse Abi. Her low computer self-efficacy and preference for structured guidance mean she might not feel confident in taking this action without explicit instructions or a clear path.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Returning to the main page allows Abi to see the schedule overview and tutorial information, which helps her make progress toward her goal. The page layout is clear, and she can easily identify the tutorials section, aligning with her comprehensive information processing style.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The tutorial links are clearly labeled and visually distinct, making it easy for Abi to identify and click on them. This aligns with her comprehensive information processing style, allowing her to confidently take this action to explore more about the tutorials.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides limited information about the tutorials, mainly focusing on the date and committee. Abi may not feel she has made significant progress toward her goal of understanding the content of the tutorials, given her need for comprehensive information and low confidence in navigating sparse details.</t>
+Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi might not feel she has made significant progress toward her goal of understanding what is being presented. Her comprehensive information processing style requires more detailed content, and her low computer self-efficacy might lead to uncertainty about finding the necessary information.</t>
         </is>
       </c>
     </row>

--- a/outputs/MYRTLE2.xlsx
+++ b/outputs/MYRTLE2.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and links to papers and events, aligning with her comprehensive information processing style. This information would help her make an informed decision about attending.</t>
+Facets: 1. Motivations
+Why: Abi is deciding whether to attend the conference, so knowing what is being presented is crucial for making an informed decision. This aligns with her motivation to gather relevant information to determine the value of attending.</t>
         </is>
       </c>
     </row>
@@ -435,16 +435,16 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page layout suggests there is more information below, which is a common web design cue that Abi is likely familiar with. This action is intuitive and doesn't require technical expertise.</t>
+Why: Scrolling down to find more information aligns with Abi's comprehensive information processing style. The page provides clear sections and headings, making it easy for her to understand that scrolling will reveal more details about the conference.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: After scrolling, Abi will see the schedule overview and keynotes, which are relevant to her goal of finding out what is being presented. This confirms she is making progress toward her goal. The information is clearly laid out, helping her feel confident she is on the right track.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling down provides some information, it may not give Abi a complete understanding of what is being presented at the conference. The page has a schedule overview and some keynotes, but it lacks detailed information about all presentations. Abi might not feel confident that she has all the necessary information to make a decision.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page layout suggests there is more information below, which is a common web design cue. Abi's comprehensive information processing style means she is likely to scroll to gather more details. The page is structured in a way that encourages scrolling to find additional content.</t>
+Why: Scrolling down is a natural action to discover more information on a webpage. The page layout suggests that more content is available below, which aligns with Abi's comprehensive information processing style. She will likely understand that scrolling will help her find additional details about the conference.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling reveals some information, it may not provide all the details Abi needs to fully understand what is being presented at the conference. The page has a schedule overview and keynotes, but without more detailed descriptions or links to specific sessions, Abi might not feel she has all the necessary information. Her low computer self-efficacy might make her uncertain if she has found everything she needs.</t>
+Why: Although scrolling down provides some information, it may not give Abi a complete picture of all presentations at the conference. The page includes a schedule overview and keynotes, but lacks detailed descriptions of all sessions. Abi might not feel confident that she has gathered all necessary information to make an informed decision.</t>
         </is>
       </c>
     </row>
@@ -470,89 +470,89 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The link labeled "Program of POPL 2019" is clearly visible and directly related to Abi's goal of finding out what is being presented. This aligns with her motivation to gather information and her comprehensive information processing style, making it likely she will know to click this link to proceed.</t>
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The link labeled "Program of POPL 2019" is clearly visible and suggests it will provide detailed information about the conference program. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style. She will likely understand that clicking this link is a logical step toward her goal.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The page provides a detailed program of the conference, listing sessions and presentations. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style. She will recognize that she is making progress toward her goal by accessing this detailed information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is long and contains a detailed list of sessions and presentations. Scrolling down is a natural action to view more content, and Abi's comprehensive information processing style will guide her to continue exploring the page for additional details.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: By scrolling down, Abi can view the detailed list of sessions and presentations. This action aligns with her comprehensive information processing style, allowing her to gather all necessary information to make an informed decision about attending the conference. She will recognize that she is making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is dense with information, and without clear instructions or labels indicating which links are for distinguished papers, Abi might struggle to identify the correct action. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident clicking without explicit guidance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The page clearly lists distinguished papers, which aligns with Abi's goal of finding out what is being presented. The information is organized and labeled, helping her recognize that she is making progress toward her goal by accessing relevant details.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide a clear way to navigate back to the main page or check tutorials. Abi might struggle to find the right action due to her low computer self-efficacy and preference for clear, guided steps. Without explicit navigation options, she may feel uncertain about how to proceed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: Returning to the main page allows Abi to access the tutorial information, which is clearly visible. This aligns with her goal of exploring the program further. The page layout and content help her recognize that she is making progress toward gathering all necessary information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The TutorialFest section is clearly labeled and visually distinct, making it easy for Abi to identify and click on a link. This aligns with her motivation to explore the program and her comprehensive information processing style, guiding her to take this action confidently.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although Abi lands on a page with detailed information about the program, the sheer volume of text and lack of clear organization might overwhelm her. Her comprehensive information processing style could make it difficult to quickly find relevant details, and her low computer self-efficacy might lead to uncertainty about whether she has all the necessary information.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling is a natural action for Abi to take when faced with a long page of information. Her comprehensive information processing style means she is likely to scroll to gather more details. The page layout suggests there is more content below, which is a common web design cue.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although scrolling reveals more information, the page is densely packed with text and lacks clear organization, which might overwhelm Abi. Her comprehensive information processing style could make it difficult to quickly find relevant details, and her low computer self-efficacy might lead to uncertainty about whether she has all the necessary information.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is densely packed with text, and it may not be immediately clear which link corresponds to the "distinguished paper." Abi's low computer self-efficacy might make her hesitant to click without clear guidance, and her preference for process-oriented learning means she might struggle without explicit instructions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the distinguished paper, Abi lands on a page that clearly lists the distinguished papers, which directly aligns with her goal. The information is organized in a way that makes it easy for her to see the relevant details, confirming she is making progress toward her goal. This aligns with her motivation to gather specific information.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide a clear way to navigate back to the main page, which might confuse Abi. Her low computer self-efficacy and preference for process-oriented learning mean she might struggle without explicit navigation instructions or visible links to return to the main page.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Returning to the main page allows Abi to access the tutorial information, which is part of her goal to explore the program. The page clearly displays tutorial options, confirming she is making progress. This aligns with her motivation to gather comprehensive information about the conference.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The tutorial links are clearly labeled and visually distinct, making it easy for Abi to identify and click on them. This aligns with her motivation to explore the program and her comprehensive information processing style, as she seeks detailed information about the conference offerings.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi might not feel she has made significant progress toward her goal of understanding what is being presented. Her comprehensive information processing style requires more detailed content, and her low computer self-efficacy might lead to uncertainty about finding the necessary information.</t>
+Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi may not feel she has made significant progress toward her goal of understanding what is being presented, as she lacks specific tutorial topics or descriptions. This could lead to uncertainty about whether she has gathered all necessary information.</t>
         </is>
       </c>
     </row>
